--- a/data/pca/factorExposure/factorExposure_2016-04-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01073993904533095</v>
+        <v>0.01422684867101066</v>
       </c>
       <c r="C2">
-        <v>0.05450987213721736</v>
+        <v>0.03798733905687243</v>
       </c>
       <c r="D2">
-        <v>0.04414364657883978</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05730466441783266</v>
+      </c>
+      <c r="E2">
+        <v>-0.0906533057088742</v>
+      </c>
+      <c r="F2">
+        <v>-0.08856947189220878</v>
+      </c>
+      <c r="G2">
+        <v>0.02438419718740171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04086604087515854</v>
+        <v>0.02535866904019785</v>
       </c>
       <c r="C3">
-        <v>0.1202307413663204</v>
+        <v>0.06609113037929805</v>
       </c>
       <c r="D3">
-        <v>0.08398210461761445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07150927158956241</v>
+      </c>
+      <c r="E3">
+        <v>-0.07381402371867339</v>
+      </c>
+      <c r="F3">
+        <v>0.02155966938967017</v>
+      </c>
+      <c r="G3">
+        <v>0.05109315809633425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06411883731916168</v>
+        <v>0.06093596312144772</v>
       </c>
       <c r="C4">
-        <v>0.05938182911945124</v>
+        <v>0.06198664536641283</v>
       </c>
       <c r="D4">
-        <v>0.02868388700412836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0512241172065679</v>
+      </c>
+      <c r="E4">
+        <v>-0.09018920620413692</v>
+      </c>
+      <c r="F4">
+        <v>-0.04601156641385769</v>
+      </c>
+      <c r="G4">
+        <v>0.08938986605397806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04141686622760673</v>
+        <v>0.03729305362327329</v>
       </c>
       <c r="C6">
-        <v>0.03451945246003151</v>
+        <v>0.02552960378490509</v>
       </c>
       <c r="D6">
-        <v>0.03171845467607615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06039845339621872</v>
+      </c>
+      <c r="E6">
+        <v>-0.08938383195232365</v>
+      </c>
+      <c r="F6">
+        <v>-0.03067605608321015</v>
+      </c>
+      <c r="G6">
+        <v>0.06483985715621739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02751169248576828</v>
+        <v>0.02137901983618391</v>
       </c>
       <c r="C7">
-        <v>0.04140000120188518</v>
+        <v>0.03598132406622114</v>
       </c>
       <c r="D7">
-        <v>-0.005246515987934079</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03714774165934844</v>
+      </c>
+      <c r="E7">
+        <v>-0.06642122735110594</v>
+      </c>
+      <c r="F7">
+        <v>-0.07395567092369779</v>
+      </c>
+      <c r="G7">
+        <v>0.09605801389714416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007385927389730608</v>
+        <v>0.005301111214234688</v>
       </c>
       <c r="C8">
-        <v>0.04042127149025666</v>
+        <v>0.0341943171279595</v>
       </c>
       <c r="D8">
-        <v>0.025883346238832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03167976632352387</v>
+      </c>
+      <c r="E8">
+        <v>-0.062499796503384</v>
+      </c>
+      <c r="F8">
+        <v>-0.0210848142560596</v>
+      </c>
+      <c r="G8">
+        <v>0.03654417872254601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03773126193073637</v>
+        <v>0.03992945108370449</v>
       </c>
       <c r="C9">
-        <v>0.04775184624093611</v>
+        <v>0.0501740168189087</v>
       </c>
       <c r="D9">
-        <v>0.01425092401036439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03746017278262237</v>
+      </c>
+      <c r="E9">
+        <v>-0.07308302792363477</v>
+      </c>
+      <c r="F9">
+        <v>-0.06055310615581266</v>
+      </c>
+      <c r="G9">
+        <v>0.07948899519555276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07172706391506317</v>
+        <v>0.09753461973544281</v>
       </c>
       <c r="C10">
-        <v>-0.1895262027605586</v>
+        <v>-0.1997873379027469</v>
       </c>
       <c r="D10">
-        <v>-0.004853207623793947</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01196095218505233</v>
+      </c>
+      <c r="E10">
+        <v>-0.03267029416225772</v>
+      </c>
+      <c r="F10">
+        <v>-0.01830082274361394</v>
+      </c>
+      <c r="G10">
+        <v>0.03578413836243165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04259281145109866</v>
+        <v>0.03771962998687668</v>
       </c>
       <c r="C11">
-        <v>0.05162612037051686</v>
+        <v>0.04745875964204088</v>
       </c>
       <c r="D11">
-        <v>0.01391902025448755</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03138696560291208</v>
+      </c>
+      <c r="E11">
+        <v>-0.02962284261374148</v>
+      </c>
+      <c r="F11">
+        <v>-0.04321711446576852</v>
+      </c>
+      <c r="G11">
+        <v>0.06729357313688805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04521812792111246</v>
+        <v>0.03985309861724427</v>
       </c>
       <c r="C12">
-        <v>0.04688954096311449</v>
+        <v>0.04516200723940957</v>
       </c>
       <c r="D12">
-        <v>0.002969822424648075</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02627542012244324</v>
+      </c>
+      <c r="E12">
+        <v>-0.03616132791101637</v>
+      </c>
+      <c r="F12">
+        <v>-0.04521208540073941</v>
+      </c>
+      <c r="G12">
+        <v>0.06525881723294484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01542282830519242</v>
+        <v>0.01263905539376771</v>
       </c>
       <c r="C13">
-        <v>0.05313067114385747</v>
+        <v>0.04144365848061509</v>
       </c>
       <c r="D13">
-        <v>0.01000686030563831</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04230953795127995</v>
+      </c>
+      <c r="E13">
+        <v>-0.1030766547999774</v>
+      </c>
+      <c r="F13">
+        <v>-0.06341402524299997</v>
+      </c>
+      <c r="G13">
+        <v>0.09562764681987035</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01007309365419888</v>
+        <v>0.006513723118631504</v>
       </c>
       <c r="C14">
-        <v>0.04005714224897404</v>
+        <v>0.03131829241368821</v>
       </c>
       <c r="D14">
-        <v>-0.006592858492164582</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02471593279029538</v>
+      </c>
+      <c r="E14">
+        <v>-0.0511812421205217</v>
+      </c>
+      <c r="F14">
+        <v>-0.08045962245681337</v>
+      </c>
+      <c r="G14">
+        <v>0.08130725315458905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-5.726851351373039e-06</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005154396156567875</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007827724092544572</v>
+      </c>
+      <c r="E15">
+        <v>-0.00457848352559725</v>
+      </c>
+      <c r="F15">
+        <v>-0.00704072461613836</v>
+      </c>
+      <c r="G15">
+        <v>0.007280646560959602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04040854852915876</v>
+        <v>0.03578817256640873</v>
       </c>
       <c r="C16">
-        <v>0.04817950185628132</v>
+        <v>0.04398018130069165</v>
       </c>
       <c r="D16">
-        <v>0.005376187518219115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02484303227036457</v>
+      </c>
+      <c r="E16">
+        <v>-0.04273793031820718</v>
+      </c>
+      <c r="F16">
+        <v>-0.05449572900068424</v>
+      </c>
+      <c r="G16">
+        <v>0.05490405617879252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02646800782020406</v>
+        <v>0.01862409860314377</v>
       </c>
       <c r="C19">
-        <v>0.06079653952109183</v>
+        <v>0.04380497525827497</v>
       </c>
       <c r="D19">
-        <v>0.0929169164408382</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09132668328701402</v>
+      </c>
+      <c r="E19">
+        <v>-0.1148755667845318</v>
+      </c>
+      <c r="F19">
+        <v>-0.06699645488736328</v>
+      </c>
+      <c r="G19">
+        <v>0.04206172271861769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.018967888335117</v>
+        <v>0.01503704549387884</v>
       </c>
       <c r="C20">
-        <v>0.0477056649196129</v>
+        <v>0.03850287584777786</v>
       </c>
       <c r="D20">
-        <v>0.01106764556504069</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03193538910697716</v>
+      </c>
+      <c r="E20">
+        <v>-0.08074091370141132</v>
+      </c>
+      <c r="F20">
+        <v>-0.0552547022044611</v>
+      </c>
+      <c r="G20">
+        <v>0.06621588958854865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01262656207841718</v>
+        <v>0.01080620458945708</v>
       </c>
       <c r="C21">
-        <v>0.05654008028095769</v>
+        <v>0.04341729701912738</v>
       </c>
       <c r="D21">
-        <v>0.03156379927913042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05424822919878772</v>
+      </c>
+      <c r="E21">
+        <v>-0.1265085482631202</v>
+      </c>
+      <c r="F21">
+        <v>-0.09441553960419585</v>
+      </c>
+      <c r="G21">
+        <v>0.09551210921238132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001658406704496377</v>
+        <v>0.003891859203429749</v>
       </c>
       <c r="C22">
-        <v>0.001071076259832773</v>
+        <v>0.027671760735764</v>
       </c>
       <c r="D22">
-        <v>0.006321524291361495</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04354218193335384</v>
+      </c>
+      <c r="E22">
+        <v>-0.04899549062095877</v>
+      </c>
+      <c r="F22">
+        <v>0.009016043238977091</v>
+      </c>
+      <c r="G22">
+        <v>0.05611303030925621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001664117996845566</v>
+        <v>0.003984158556223126</v>
       </c>
       <c r="C23">
-        <v>0.001090126502435853</v>
+        <v>0.02781028143217792</v>
       </c>
       <c r="D23">
-        <v>0.006310194354040733</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04309288172229373</v>
+      </c>
+      <c r="E23">
+        <v>-0.04925590762719285</v>
+      </c>
+      <c r="F23">
+        <v>0.009284716286075604</v>
+      </c>
+      <c r="G23">
+        <v>0.05610848461467055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03738739021424743</v>
+        <v>0.03623441771921327</v>
       </c>
       <c r="C24">
-        <v>0.05027085519568131</v>
+        <v>0.05201835698549614</v>
       </c>
       <c r="D24">
-        <v>0.007033397310057328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02385403810175931</v>
+      </c>
+      <c r="E24">
+        <v>-0.04388844048254776</v>
+      </c>
+      <c r="F24">
+        <v>-0.05728439474883614</v>
+      </c>
+      <c r="G24">
+        <v>0.06765207897139279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04908468257380694</v>
+        <v>0.04409618974426209</v>
       </c>
       <c r="C25">
-        <v>0.06145762373500875</v>
+        <v>0.05584678880954475</v>
       </c>
       <c r="D25">
-        <v>-0.003502349061290848</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02217953121812954</v>
+      </c>
+      <c r="E25">
+        <v>-0.03679708081021733</v>
+      </c>
+      <c r="F25">
+        <v>-0.04711717178642868</v>
+      </c>
+      <c r="G25">
+        <v>0.07715265747044744</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.0168429179653344</v>
+        <v>0.01580905684988259</v>
       </c>
       <c r="C26">
-        <v>0.01812757311993338</v>
+        <v>0.01677194821102299</v>
       </c>
       <c r="D26">
-        <v>0.001106148635096404</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02372803951397527</v>
+      </c>
+      <c r="E26">
+        <v>-0.05352924480013207</v>
+      </c>
+      <c r="F26">
+        <v>-0.0618822788972002</v>
+      </c>
+      <c r="G26">
+        <v>0.04914347030286653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08531546843038827</v>
+        <v>0.1324922467073991</v>
       </c>
       <c r="C28">
-        <v>-0.2483502187267356</v>
+        <v>-0.2556543497505078</v>
       </c>
       <c r="D28">
-        <v>-0.004634917993879104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02927766510780553</v>
+      </c>
+      <c r="E28">
+        <v>-0.05626099279963799</v>
+      </c>
+      <c r="F28">
+        <v>-0.03406455120909468</v>
+      </c>
+      <c r="G28">
+        <v>0.05008828506700339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008051026658729961</v>
+        <v>0.006489555228858415</v>
       </c>
       <c r="C29">
-        <v>0.03340353463155583</v>
+        <v>0.02835109499473143</v>
       </c>
       <c r="D29">
-        <v>-0.01326060980362683</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01616994241443761</v>
+      </c>
+      <c r="E29">
+        <v>-0.05071199300477168</v>
+      </c>
+      <c r="F29">
+        <v>-0.07078168485909676</v>
+      </c>
+      <c r="G29">
+        <v>0.08533386400099315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04696469642829582</v>
+        <v>0.043451674496082</v>
       </c>
       <c r="C30">
-        <v>0.05356786003700776</v>
+        <v>0.05640730587639236</v>
       </c>
       <c r="D30">
-        <v>0.08112428399834722</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1004307402632413</v>
+      </c>
+      <c r="E30">
+        <v>-0.08063324095644081</v>
+      </c>
+      <c r="F30">
+        <v>-0.07296448171548277</v>
+      </c>
+      <c r="G30">
+        <v>0.06439091880085966</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06082311814032305</v>
+        <v>0.05877518257825989</v>
       </c>
       <c r="C31">
-        <v>0.04387112725960671</v>
+        <v>0.06053191805934817</v>
       </c>
       <c r="D31">
-        <v>-0.0432246085565547</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.019012085416425</v>
+      </c>
+      <c r="E31">
+        <v>-0.07076885366222496</v>
+      </c>
+      <c r="F31">
+        <v>-0.0305287795525397</v>
+      </c>
+      <c r="G31">
+        <v>0.08429719726499416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001781050033034129</v>
+        <v>0.006241640671257811</v>
       </c>
       <c r="C32">
-        <v>0.0429579137940209</v>
+        <v>0.03377876614565828</v>
       </c>
       <c r="D32">
-        <v>0.05934217473473283</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05328870155786422</v>
+      </c>
+      <c r="E32">
+        <v>-0.05789662567505353</v>
+      </c>
+      <c r="F32">
+        <v>-0.07313955909178123</v>
+      </c>
+      <c r="G32">
+        <v>0.06535547410873439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0344484785618864</v>
+        <v>0.02805220128455201</v>
       </c>
       <c r="C33">
-        <v>0.05729229671074357</v>
+        <v>0.05154193099836329</v>
       </c>
       <c r="D33">
-        <v>0.04137621081683727</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06989431625699988</v>
+      </c>
+      <c r="E33">
+        <v>-0.09209615361649034</v>
+      </c>
+      <c r="F33">
+        <v>-0.07255333177063114</v>
+      </c>
+      <c r="G33">
+        <v>0.09575327239241867</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04632456002905944</v>
+        <v>0.04168176209852237</v>
       </c>
       <c r="C34">
-        <v>0.06448519713215699</v>
+        <v>0.06245989342703369</v>
       </c>
       <c r="D34">
-        <v>0.01944083509174823</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03797627590008258</v>
+      </c>
+      <c r="E34">
+        <v>-0.01877514065594245</v>
+      </c>
+      <c r="F34">
+        <v>-0.05750171316783487</v>
+      </c>
+      <c r="G34">
+        <v>0.0690445596482214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01741464884216123</v>
+        <v>0.01477860600009979</v>
       </c>
       <c r="C36">
-        <v>0.01737336409110663</v>
+        <v>0.01347412573589259</v>
       </c>
       <c r="D36">
-        <v>-0.002611703470354782</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02277709539966025</v>
+      </c>
+      <c r="E36">
+        <v>-0.0613920131254837</v>
+      </c>
+      <c r="F36">
+        <v>-0.05335673218730676</v>
+      </c>
+      <c r="G36">
+        <v>0.06525120881632902</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03033296089835372</v>
+        <v>0.02371664217895928</v>
       </c>
       <c r="C38">
-        <v>0.03168269472227344</v>
+        <v>0.02409219779771038</v>
       </c>
       <c r="D38">
-        <v>-0.01330804629922388</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0208151562077825</v>
+      </c>
+      <c r="E38">
+        <v>-0.05202348532233315</v>
+      </c>
+      <c r="F38">
+        <v>-0.04394458880719816</v>
+      </c>
+      <c r="G38">
+        <v>0.04483001690110582</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04787619352720909</v>
+        <v>0.041937899288191</v>
       </c>
       <c r="C39">
-        <v>0.06213399342924852</v>
+        <v>0.06205249255162303</v>
       </c>
       <c r="D39">
-        <v>0.02098391128041636</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05051902184096609</v>
+      </c>
+      <c r="E39">
+        <v>-0.05107857751250854</v>
+      </c>
+      <c r="F39">
+        <v>-0.07701211861596571</v>
+      </c>
+      <c r="G39">
+        <v>0.06125681426771209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01233887883926857</v>
+        <v>0.01408627930972366</v>
       </c>
       <c r="C40">
-        <v>0.0544768299906449</v>
+        <v>0.0386762450830218</v>
       </c>
       <c r="D40">
-        <v>0.01912542764644103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02926436856654881</v>
+      </c>
+      <c r="E40">
+        <v>-0.09130793714349524</v>
+      </c>
+      <c r="F40">
+        <v>-0.04005503699358916</v>
+      </c>
+      <c r="G40">
+        <v>0.1012958603676789</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02286746849890454</v>
+        <v>0.01958914278103975</v>
       </c>
       <c r="C41">
-        <v>0.01281701335611976</v>
+        <v>0.009155351160040367</v>
       </c>
       <c r="D41">
-        <v>0.001473927860550573</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01480656815759899</v>
+      </c>
+      <c r="E41">
+        <v>-0.06226940775450687</v>
+      </c>
+      <c r="F41">
+        <v>-0.04936644629090733</v>
+      </c>
+      <c r="G41">
+        <v>0.05279503163790762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.0432046870762517</v>
+        <v>0.03093999277588133</v>
       </c>
       <c r="C43">
-        <v>0.03370554991683253</v>
+        <v>0.02433121674398711</v>
       </c>
       <c r="D43">
-        <v>0.02233463209069972</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04276446335578261</v>
+      </c>
+      <c r="E43">
+        <v>-0.07950780944360743</v>
+      </c>
+      <c r="F43">
+        <v>-0.04268101241748021</v>
+      </c>
+      <c r="G43">
+        <v>0.08083427007866942</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01525620780807393</v>
+        <v>0.01614009199052165</v>
       </c>
       <c r="C44">
-        <v>0.06815476246755235</v>
+        <v>0.0471109556732325</v>
       </c>
       <c r="D44">
-        <v>0.008805503745306042</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03132200404429657</v>
+      </c>
+      <c r="E44">
+        <v>-0.08826468489861933</v>
+      </c>
+      <c r="F44">
+        <v>-0.06615915696915464</v>
+      </c>
+      <c r="G44">
+        <v>0.04835612389093943</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01075106314541894</v>
+        <v>0.01145544514676483</v>
       </c>
       <c r="C46">
-        <v>0.0281569392038091</v>
+        <v>0.02850623880084574</v>
       </c>
       <c r="D46">
-        <v>-0.01446086638962217</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01170558087399081</v>
+      </c>
+      <c r="E46">
+        <v>-0.06008175636158151</v>
+      </c>
+      <c r="F46">
+        <v>-0.08465582953016694</v>
+      </c>
+      <c r="G46">
+        <v>0.08257951586642341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08991511752209146</v>
+        <v>0.09262067324609843</v>
       </c>
       <c r="C47">
-        <v>0.06760763124039582</v>
+        <v>0.07836795820354238</v>
       </c>
       <c r="D47">
-        <v>-0.04310778407399797</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02559081269883112</v>
+      </c>
+      <c r="E47">
+        <v>-0.06749658423772498</v>
+      </c>
+      <c r="F47">
+        <v>-0.02772719372441186</v>
+      </c>
+      <c r="G47">
+        <v>0.07880844667966849</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01894454782322998</v>
+        <v>0.0174778168792476</v>
       </c>
       <c r="C48">
-        <v>0.01472954645591238</v>
+        <v>0.01578013885260083</v>
       </c>
       <c r="D48">
-        <v>-0.01582132609232845</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01022152326774081</v>
+      </c>
+      <c r="E48">
+        <v>-0.07349725928362405</v>
+      </c>
+      <c r="F48">
+        <v>-0.0669481253498387</v>
+      </c>
+      <c r="G48">
+        <v>0.07236840898697665</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08496543973152337</v>
+        <v>0.07252498940983838</v>
       </c>
       <c r="C50">
-        <v>0.08059921660533141</v>
+        <v>0.07402301062561102</v>
       </c>
       <c r="D50">
-        <v>-0.04326616415424443</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01047365712926961</v>
+      </c>
+      <c r="E50">
+        <v>-0.07826525461614295</v>
+      </c>
+      <c r="F50">
+        <v>-0.001424824092115128</v>
+      </c>
+      <c r="G50">
+        <v>0.0934155490879254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01764140493523941</v>
+        <v>0.01104885333788594</v>
       </c>
       <c r="C51">
-        <v>0.05046719929913636</v>
+        <v>0.03219071570094181</v>
       </c>
       <c r="D51">
-        <v>0.04103692730453429</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05538641037873781</v>
+      </c>
+      <c r="E51">
+        <v>-0.05234888681774949</v>
+      </c>
+      <c r="F51">
+        <v>-0.07385262480191006</v>
+      </c>
+      <c r="G51">
+        <v>0.05895011983794606</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08485832766191115</v>
+        <v>0.09753213239568922</v>
       </c>
       <c r="C53">
-        <v>0.07713435921248972</v>
+        <v>0.08503625560953904</v>
       </c>
       <c r="D53">
-        <v>-0.06487336063767217</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06222821024455421</v>
+      </c>
+      <c r="E53">
+        <v>-0.06488344987852436</v>
+      </c>
+      <c r="F53">
+        <v>-0.02664583604768636</v>
+      </c>
+      <c r="G53">
+        <v>0.06894134320580608</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03699964748385931</v>
+        <v>0.02998050165300572</v>
       </c>
       <c r="C54">
-        <v>0.03709199771677173</v>
+        <v>0.03218237581841944</v>
       </c>
       <c r="D54">
-        <v>-0.004443581899601914</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02319938853702132</v>
+      </c>
+      <c r="E54">
+        <v>-0.05734674789185757</v>
+      </c>
+      <c r="F54">
+        <v>-0.07205735111460068</v>
+      </c>
+      <c r="G54">
+        <v>0.08351457872509377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07936649797666138</v>
+        <v>0.08968934447563112</v>
       </c>
       <c r="C55">
-        <v>0.05402730654732778</v>
+        <v>0.06705066713165338</v>
       </c>
       <c r="D55">
-        <v>-0.06893425962950318</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06218767986015841</v>
+      </c>
+      <c r="E55">
+        <v>-0.04234871165353421</v>
+      </c>
+      <c r="F55">
+        <v>-0.00837984127663371</v>
+      </c>
+      <c r="G55">
+        <v>0.05320743201823133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1532748988761268</v>
+        <v>0.1555399721347749</v>
       </c>
       <c r="C56">
-        <v>0.08112541559516878</v>
+        <v>0.09949085320909143</v>
       </c>
       <c r="D56">
-        <v>-0.06119042560831763</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0571937873063246</v>
+      </c>
+      <c r="E56">
+        <v>-0.03912943267232542</v>
+      </c>
+      <c r="F56">
+        <v>0.01445299437004353</v>
+      </c>
+      <c r="G56">
+        <v>0.02441891262190602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05090074433125431</v>
+        <v>0.03155396961516691</v>
       </c>
       <c r="C58">
-        <v>0.02171804488357166</v>
+        <v>0.02206404444943756</v>
       </c>
       <c r="D58">
-        <v>0.5852437990330908</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3662904495984182</v>
+      </c>
+      <c r="E58">
+        <v>-0.6380748352090362</v>
+      </c>
+      <c r="F58">
+        <v>0.4226940122738283</v>
+      </c>
+      <c r="G58">
+        <v>-0.4471927500713564</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1247298056739439</v>
+        <v>0.1397854590994428</v>
       </c>
       <c r="C59">
-        <v>-0.2012799183564109</v>
+        <v>-0.1916148618070126</v>
       </c>
       <c r="D59">
-        <v>0.0290930643806908</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0298145001985975</v>
+      </c>
+      <c r="E59">
+        <v>-0.02782349250795981</v>
+      </c>
+      <c r="F59">
+        <v>-0.03694739086229125</v>
+      </c>
+      <c r="G59">
+        <v>-0.01130942594345209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3064538101110859</v>
+        <v>0.2765910306370733</v>
       </c>
       <c r="C60">
-        <v>0.109631287350614</v>
+        <v>0.1062967108038859</v>
       </c>
       <c r="D60">
-        <v>0.1791826674160563</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2605865672091816</v>
+      </c>
+      <c r="E60">
+        <v>0.2374768136194901</v>
+      </c>
+      <c r="F60">
+        <v>0.08652337655249413</v>
+      </c>
+      <c r="G60">
+        <v>0.04561976766767994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04683240715589237</v>
+        <v>0.04331949052962959</v>
       </c>
       <c r="C61">
-        <v>0.06064551556305316</v>
+        <v>0.05744740435680804</v>
       </c>
       <c r="D61">
-        <v>0.0144257944797695</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04077324562078737</v>
+      </c>
+      <c r="E61">
+        <v>-0.05340364096012515</v>
+      </c>
+      <c r="F61">
+        <v>-0.05901577863900816</v>
+      </c>
+      <c r="G61">
+        <v>0.07611074297089518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01913506317782757</v>
+        <v>0.0172424901716444</v>
       </c>
       <c r="C63">
-        <v>0.03385067589491787</v>
+        <v>0.03054269755486521</v>
       </c>
       <c r="D63">
-        <v>-0.02188396328346113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01519951407675948</v>
+      </c>
+      <c r="E63">
+        <v>-0.06374801900250014</v>
+      </c>
+      <c r="F63">
+        <v>-0.03806069786978979</v>
+      </c>
+      <c r="G63">
+        <v>0.0755711310799949</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05068880188663934</v>
+        <v>0.05631452123901043</v>
       </c>
       <c r="C64">
-        <v>0.04816996132543543</v>
+        <v>0.05801221805081246</v>
       </c>
       <c r="D64">
-        <v>0.01482767863397055</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006808520749111016</v>
+      </c>
+      <c r="E64">
+        <v>-0.04339049745113165</v>
+      </c>
+      <c r="F64">
+        <v>-0.05192149871617324</v>
+      </c>
+      <c r="G64">
+        <v>0.05251913040202766</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08129814607283581</v>
+        <v>0.06600202492799968</v>
       </c>
       <c r="C65">
-        <v>0.02362262181655464</v>
+        <v>0.02432700349068582</v>
       </c>
       <c r="D65">
-        <v>0.06228358081586947</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08723188295060059</v>
+      </c>
+      <c r="E65">
+        <v>-0.0567372688373796</v>
+      </c>
+      <c r="F65">
+        <v>-0.006605372928323743</v>
+      </c>
+      <c r="G65">
+        <v>0.02164651476852095</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06336742474033251</v>
+        <v>0.05413300363184805</v>
       </c>
       <c r="C66">
-        <v>0.08593161256600683</v>
+        <v>0.08011817939685828</v>
       </c>
       <c r="D66">
-        <v>0.04094713305112708</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07477059956428773</v>
+      </c>
+      <c r="E66">
+        <v>-0.06133376730320211</v>
+      </c>
+      <c r="F66">
+        <v>-0.07003080151519396</v>
+      </c>
+      <c r="G66">
+        <v>0.07401516722413944</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05170412796845379</v>
+        <v>0.0451186734527836</v>
       </c>
       <c r="C67">
-        <v>0.031555991812978</v>
+        <v>0.02849756002993374</v>
       </c>
       <c r="D67">
-        <v>-0.02205268861257662</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.00473460574382425</v>
+      </c>
+      <c r="E67">
+        <v>-0.02788506617903134</v>
+      </c>
+      <c r="F67">
+        <v>-0.02975805777131437</v>
+      </c>
+      <c r="G67">
+        <v>0.03590572462513057</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.120072487077682</v>
+        <v>0.1448586054448866</v>
       </c>
       <c r="C68">
-        <v>-0.2815449590389687</v>
+        <v>-0.2457849730568664</v>
       </c>
       <c r="D68">
-        <v>-0.00785541013470639</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01696996194151873</v>
+      </c>
+      <c r="E68">
+        <v>-0.04256373127411296</v>
+      </c>
+      <c r="F68">
+        <v>-0.01231578098742082</v>
+      </c>
+      <c r="G68">
+        <v>0.02992444135510944</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09256655843858372</v>
+        <v>0.08798831541555562</v>
       </c>
       <c r="C69">
-        <v>0.07157022447354584</v>
+        <v>0.08941852042369926</v>
       </c>
       <c r="D69">
-        <v>-0.05200094193727593</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01701190771862294</v>
+      </c>
+      <c r="E69">
+        <v>-0.05918727458212172</v>
+      </c>
+      <c r="F69">
+        <v>-0.05893935662051326</v>
+      </c>
+      <c r="G69">
+        <v>0.07664631901894817</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1112270215131435</v>
+        <v>0.1393477829708402</v>
       </c>
       <c r="C71">
-        <v>-0.2582163213437572</v>
+        <v>-0.2450201549360739</v>
       </c>
       <c r="D71">
-        <v>0.01203623957455718</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.001172353390887135</v>
+      </c>
+      <c r="E71">
+        <v>-0.05628308839012842</v>
+      </c>
+      <c r="F71">
+        <v>-0.01439934631219674</v>
+      </c>
+      <c r="G71">
+        <v>0.06559997094905612</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09779473884017412</v>
+        <v>0.1043198455961365</v>
       </c>
       <c r="C72">
-        <v>0.04354272462888126</v>
+        <v>0.05044029558099271</v>
       </c>
       <c r="D72">
-        <v>0.006327208505099919</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.033076092659598</v>
+      </c>
+      <c r="E72">
+        <v>-0.02216463644412024</v>
+      </c>
+      <c r="F72">
+        <v>-0.02829031183292174</v>
+      </c>
+      <c r="G72">
+        <v>0.08644192614016934</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3962227353655142</v>
+        <v>0.335296226020601</v>
       </c>
       <c r="C73">
-        <v>0.04670264086439581</v>
+        <v>0.06985848073923774</v>
       </c>
       <c r="D73">
-        <v>0.4403276791255996</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5184884742602427</v>
+      </c>
+      <c r="E73">
+        <v>0.4385638485062076</v>
+      </c>
+      <c r="F73">
+        <v>0.2451468933730571</v>
+      </c>
+      <c r="G73">
+        <v>0.02125093615398001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1094979855120446</v>
+        <v>0.1134572592251505</v>
       </c>
       <c r="C74">
-        <v>0.09264264394588245</v>
+        <v>0.0920738661135157</v>
       </c>
       <c r="D74">
-        <v>-0.04697072377586241</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04858264780939999</v>
+      </c>
+      <c r="E74">
+        <v>-0.0573554100482381</v>
+      </c>
+      <c r="F74">
+        <v>0.007914403869220214</v>
+      </c>
+      <c r="G74">
+        <v>0.04487026248768874</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2595287533970985</v>
+        <v>0.2628916743095617</v>
       </c>
       <c r="C75">
-        <v>0.08930936151749437</v>
+        <v>0.1219377526384342</v>
       </c>
       <c r="D75">
-        <v>-0.1376967840247622</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1512560872927955</v>
+      </c>
+      <c r="E75">
+        <v>-0.02890112037373943</v>
+      </c>
+      <c r="F75">
+        <v>0.07156170085581416</v>
+      </c>
+      <c r="G75">
+        <v>-0.05175814336776562</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1177909912197062</v>
+        <v>0.1305308477260353</v>
       </c>
       <c r="C76">
-        <v>0.08055285709090246</v>
+        <v>0.09185091476551162</v>
       </c>
       <c r="D76">
-        <v>-0.07690520990736857</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.08348057834758005</v>
+      </c>
+      <c r="E76">
+        <v>-0.071608663136701</v>
+      </c>
+      <c r="F76">
+        <v>-0.0123284520792949</v>
+      </c>
+      <c r="G76">
+        <v>0.03121269008462868</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08055913680695204</v>
+        <v>0.06591594083635639</v>
       </c>
       <c r="C77">
-        <v>0.04644187081405649</v>
+        <v>0.05842135267661494</v>
       </c>
       <c r="D77">
-        <v>0.05309572977075142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05292053805086705</v>
+      </c>
+      <c r="E77">
+        <v>-0.095221834047066</v>
+      </c>
+      <c r="F77">
+        <v>-0.1793301943853357</v>
+      </c>
+      <c r="G77">
+        <v>-0.1046242863487391</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04914797452369176</v>
+        <v>0.04698923718557755</v>
       </c>
       <c r="C78">
-        <v>0.04070769848075234</v>
+        <v>0.05222049373558665</v>
       </c>
       <c r="D78">
-        <v>0.0316865439596191</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06041717125369826</v>
+      </c>
+      <c r="E78">
+        <v>-0.06323172798156994</v>
+      </c>
+      <c r="F78">
+        <v>-0.0580567153509356</v>
+      </c>
+      <c r="G78">
+        <v>0.06385116511850683</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.0002566538839832208</v>
+        <v>0.03254421769626301</v>
       </c>
       <c r="C79">
-        <v>-0.0002527060678260603</v>
+        <v>0.047272386269547</v>
       </c>
       <c r="D79">
-        <v>0.001171680685434274</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08359702473696938</v>
+      </c>
+      <c r="E79">
+        <v>-0.06587485673179239</v>
+      </c>
+      <c r="F79">
+        <v>0.02036868824091326</v>
+      </c>
+      <c r="G79">
+        <v>0.03220450129723391</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03951379381919284</v>
+        <v>0.03069711873859406</v>
       </c>
       <c r="C80">
-        <v>0.04934112796285155</v>
+        <v>0.04957857394328161</v>
       </c>
       <c r="D80">
-        <v>0.03016965484027269</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03925494361457949</v>
+      </c>
+      <c r="E80">
+        <v>-0.01711293076685405</v>
+      </c>
+      <c r="F80">
+        <v>-0.05447283640862475</v>
+      </c>
+      <c r="G80">
+        <v>-0.0001290905768297619</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1435579445368787</v>
+        <v>0.1429830458459071</v>
       </c>
       <c r="C81">
-        <v>0.07192303476852405</v>
+        <v>0.09111689428198762</v>
       </c>
       <c r="D81">
-        <v>-0.1118817100614256</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1283466344575805</v>
+      </c>
+      <c r="E81">
+        <v>-0.06941737885940619</v>
+      </c>
+      <c r="F81">
+        <v>0.02745882234086981</v>
+      </c>
+      <c r="G81">
+        <v>-0.01474149553132567</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1888120802211128</v>
+        <v>0.224094916017057</v>
       </c>
       <c r="C82">
-        <v>0.08206244524168615</v>
+        <v>0.1483098233442852</v>
       </c>
       <c r="D82">
-        <v>-0.1995952760836867</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2520782948419045</v>
+      </c>
+      <c r="E82">
+        <v>0.03824878197950708</v>
+      </c>
+      <c r="F82">
+        <v>-0.05106491460065296</v>
+      </c>
+      <c r="G82">
+        <v>0.0602601618973229</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04082046366077909</v>
+        <v>0.02760120455572008</v>
       </c>
       <c r="C83">
-        <v>0.03112550665258866</v>
+        <v>0.04373936575138138</v>
       </c>
       <c r="D83">
-        <v>0.03816485383613617</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03026874203224183</v>
+      </c>
+      <c r="E83">
+        <v>-0.02584006055628137</v>
+      </c>
+      <c r="F83">
+        <v>-0.0412312976119994</v>
+      </c>
+      <c r="G83">
+        <v>0.003769234578973071</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002566948627451214</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-7.899983153996466e-05</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001599099384124348</v>
+      </c>
+      <c r="E84">
+        <v>-0.002770650817524946</v>
+      </c>
+      <c r="F84">
+        <v>0.0002804108683064826</v>
+      </c>
+      <c r="G84">
+        <v>0.002160521023337401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2208802441979182</v>
+        <v>0.2041947151111306</v>
       </c>
       <c r="C85">
-        <v>0.0917370618561667</v>
+        <v>0.1102079831526113</v>
       </c>
       <c r="D85">
-        <v>-0.1693855839890809</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1322494345592414</v>
+      </c>
+      <c r="E85">
+        <v>0.006612134659906769</v>
+      </c>
+      <c r="F85">
+        <v>0.1117491682175727</v>
+      </c>
+      <c r="G85">
+        <v>-0.003827680540630081</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009801970617881475</v>
+        <v>0.01203019827128891</v>
       </c>
       <c r="C86">
-        <v>0.02829974246880168</v>
+        <v>0.0182211109921567</v>
       </c>
       <c r="D86">
-        <v>0.0445526517572604</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06131981973660649</v>
+      </c>
+      <c r="E86">
+        <v>-0.08014258666053829</v>
+      </c>
+      <c r="F86">
+        <v>-0.08711213891849624</v>
+      </c>
+      <c r="G86">
+        <v>0.07553441571504332</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02545417129780893</v>
+        <v>0.02586131833268927</v>
       </c>
       <c r="C87">
-        <v>0.003498211153157113</v>
+        <v>0.01195818465602913</v>
       </c>
       <c r="D87">
-        <v>0.08500806379063654</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08036116508695071</v>
+      </c>
+      <c r="E87">
+        <v>-0.131786270814795</v>
+      </c>
+      <c r="F87">
+        <v>-0.08134829143233849</v>
+      </c>
+      <c r="G87">
+        <v>0.007338636129138345</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1104072735968378</v>
+        <v>0.09409222631687439</v>
       </c>
       <c r="C88">
-        <v>0.07098333433899434</v>
+        <v>0.06063769536339542</v>
       </c>
       <c r="D88">
-        <v>-0.02417853823808142</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.008182733306582052</v>
+      </c>
+      <c r="E88">
+        <v>-0.05323769741407624</v>
+      </c>
+      <c r="F88">
+        <v>-0.054382150522131</v>
+      </c>
+      <c r="G88">
+        <v>0.04347765678616455</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1758647224305835</v>
+        <v>0.212858417014145</v>
       </c>
       <c r="C89">
-        <v>-0.385935417410496</v>
+        <v>-0.387686691115201</v>
       </c>
       <c r="D89">
-        <v>-0.02334608975252744</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01554776699882079</v>
+      </c>
+      <c r="E89">
+        <v>-0.06775583068948143</v>
+      </c>
+      <c r="F89">
+        <v>-0.08994187103687576</v>
+      </c>
+      <c r="G89">
+        <v>-0.002025806347601534</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1690685893077753</v>
+        <v>0.1933208078816401</v>
       </c>
       <c r="C90">
-        <v>-0.3380090908585267</v>
+        <v>-0.3135258083700054</v>
       </c>
       <c r="D90">
-        <v>-0.03707131065688988</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02361396753063402</v>
+      </c>
+      <c r="E90">
+        <v>-0.05608657623297274</v>
+      </c>
+      <c r="F90">
+        <v>-0.03250293137789084</v>
+      </c>
+      <c r="G90">
+        <v>0.01035780071098099</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1932890234547514</v>
+        <v>0.1902758246959318</v>
       </c>
       <c r="C91">
-        <v>0.1224850174746235</v>
+        <v>0.1385473549920259</v>
       </c>
       <c r="D91">
-        <v>-0.1327890880643874</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1310768952812729</v>
+      </c>
+      <c r="E91">
+        <v>-0.0431471280652654</v>
+      </c>
+      <c r="F91">
+        <v>0.0199430175728368</v>
+      </c>
+      <c r="G91">
+        <v>-0.005161746103773839</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1565784569332241</v>
+        <v>0.1765041120096513</v>
       </c>
       <c r="C92">
-        <v>-0.2936282362430294</v>
+        <v>-0.2975157519333683</v>
       </c>
       <c r="D92">
-        <v>-0.01437260224105346</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.0156512573828459</v>
+      </c>
+      <c r="E92">
+        <v>-0.06149838103641003</v>
+      </c>
+      <c r="F92">
+        <v>-0.05598991612474803</v>
+      </c>
+      <c r="G92">
+        <v>0.02758434724154611</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1880755572693938</v>
+        <v>0.2140631953864097</v>
       </c>
       <c r="C93">
-        <v>-0.3422624896827801</v>
+        <v>-0.323522585223165</v>
       </c>
       <c r="D93">
-        <v>-0.03685375631822762</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0194811801793262</v>
+      </c>
+      <c r="E93">
+        <v>-0.03867794617392564</v>
+      </c>
+      <c r="F93">
+        <v>-0.005887482051190042</v>
+      </c>
+      <c r="G93">
+        <v>0.04207070950561755</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3414662420388984</v>
+        <v>0.3439255697186626</v>
       </c>
       <c r="C94">
-        <v>0.1230773799228194</v>
+        <v>0.1706100062150682</v>
       </c>
       <c r="D94">
-        <v>-0.3775106229239054</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4055811604520654</v>
+      </c>
+      <c r="E94">
+        <v>0.01332682721792871</v>
+      </c>
+      <c r="F94">
+        <v>0.1246780368505275</v>
+      </c>
+      <c r="G94">
+        <v>-0.3929459248742426</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1232499110273217</v>
+        <v>0.09086981346224665</v>
       </c>
       <c r="C95">
-        <v>0.05376493103412104</v>
+        <v>0.05690351850534314</v>
       </c>
       <c r="D95">
-        <v>0.2211883711408843</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.205499477775114</v>
+      </c>
+      <c r="E95">
+        <v>0.1238462721106491</v>
+      </c>
+      <c r="F95">
+        <v>-0.6918451903657487</v>
+      </c>
+      <c r="G95">
+        <v>-0.5836076608291532</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.19219135595115</v>
+        <v>0.1863608651142935</v>
       </c>
       <c r="C98">
-        <v>0.02450266300438219</v>
+        <v>0.04764230055909883</v>
       </c>
       <c r="D98">
-        <v>0.1581927940453442</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2041761590699557</v>
+      </c>
+      <c r="E98">
+        <v>0.1318314818268495</v>
+      </c>
+      <c r="F98">
+        <v>0.08199445460865766</v>
+      </c>
+      <c r="G98">
+        <v>0.08053253630032009</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007830777519592802</v>
+        <v>0.006482014277627423</v>
       </c>
       <c r="C101">
-        <v>0.03343221052766199</v>
+        <v>0.02790027255431313</v>
       </c>
       <c r="D101">
-        <v>-0.01302466956345304</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01605875648852546</v>
+      </c>
+      <c r="E101">
+        <v>-0.05138578219364495</v>
+      </c>
+      <c r="F101">
+        <v>-0.0714834719617347</v>
+      </c>
+      <c r="G101">
+        <v>0.08517263752324132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1234802490633018</v>
+        <v>0.1270868025714049</v>
       </c>
       <c r="C102">
-        <v>0.06709895567027813</v>
+        <v>0.09767270063414075</v>
       </c>
       <c r="D102">
-        <v>-0.04932577873518913</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05845103516517079</v>
+      </c>
+      <c r="E102">
+        <v>0.01573617956172545</v>
+      </c>
+      <c r="F102">
+        <v>-0.02391538934674508</v>
+      </c>
+      <c r="G102">
+        <v>-0.01178407552736092</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
